--- a/Accounts-Schedules/تدريب سامسونج 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 10-11-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
   <si>
     <t>Please find the below list for the trainees starting tomorrow in New Cairo from 9 Am to 6 Pm</t>
   </si>
@@ -213,6 +213,15 @@
     <t>كريم بنونة</t>
   </si>
   <si>
+    <t>Mayar Ayman Aly</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>الابيض اول فيصل</t>
+  </si>
+  <si>
     <t>trainees starting tomorrow in New Cairo from 9 Am to 6 Pm</t>
   </si>
   <si>
@@ -307,6 +316,9 @@
   </si>
   <si>
     <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>ميار ايمن علي</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,6 +1294,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1816,10 +1837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2278,6 +2299,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="25" ht="15.25" spans="1:6">
+      <c r="A25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="29">
+        <v>1026740215</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2287,10 +2328,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="B3:H22"/>
+      <selection activeCell="H23" sqref="B3:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2305,21 +2346,21 @@
   <sheetData>
     <row r="1" ht="19.25" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="16.25" spans="2:9">
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -2334,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" ht="15.25" spans="2:9">
       <c r="B3" s="5">
         <v>0.375</v>
       </c>
@@ -2345,22 +2386,22 @@
         <v>1035260283</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" ht="15.25" spans="2:9">
       <c r="B4" s="5">
         <v>0.375</v>
       </c>
@@ -2371,10 +2412,10 @@
         <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>52</v>
@@ -2386,7 +2427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" ht="15.25" spans="2:9">
       <c r="B5" s="5">
         <v>0.375</v>
       </c>
@@ -2397,10 +2438,10 @@
         <v>1200050553</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>52</v>
@@ -2412,7 +2453,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" ht="15.25" spans="2:9">
       <c r="B6" s="5">
         <v>0.375</v>
       </c>
@@ -2423,22 +2464,22 @@
         <v>1108718978</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" ht="15.25" spans="2:9">
       <c r="B7" s="5">
         <v>0.375</v>
       </c>
@@ -2449,13 +2490,13 @@
         <v>1117297939</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>55</v>
@@ -2464,7 +2505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="5">
         <v>0.375</v>
       </c>
@@ -2475,10 +2516,10 @@
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>40</v>
@@ -2490,7 +2531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="5">
         <v>0.375</v>
       </c>
@@ -2501,13 +2542,13 @@
         <v>1028108588</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>37</v>
@@ -2516,7 +2557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" ht="15.25" spans="2:9">
       <c r="B10" s="5">
         <v>0.375</v>
       </c>
@@ -2527,10 +2568,10 @@
         <v>1286209830</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>9</v>
@@ -2542,7 +2583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" ht="15.25" spans="2:9">
       <c r="B11" s="5">
         <v>0.375</v>
       </c>
@@ -2553,10 +2594,10 @@
         <v>1123114428</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>9</v>
@@ -2568,7 +2609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" ht="15.25" spans="2:9">
       <c r="B12" s="5">
         <v>0.375</v>
       </c>
@@ -2579,10 +2620,10 @@
         <v>1222544740</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>9</v>
@@ -2594,7 +2635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" ht="15.25" spans="2:9">
       <c r="B13" s="5">
         <v>0.375</v>
       </c>
@@ -2605,10 +2646,10 @@
         <v>1032874133</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>9</v>
@@ -2620,7 +2661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" ht="15.25" spans="2:9">
       <c r="B14" s="5">
         <v>0.375</v>
       </c>
@@ -2631,10 +2672,10 @@
         <v>1002498107</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>9</v>
@@ -2646,7 +2687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" ht="15.25" spans="2:9">
       <c r="B15" s="5">
         <v>0.375</v>
       </c>
@@ -2657,10 +2698,10 @@
         <v>1119865125</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>9</v>
@@ -2672,7 +2713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" ht="15.25" spans="2:9">
       <c r="B16" s="5">
         <v>0.375</v>
       </c>
@@ -2683,10 +2724,10 @@
         <v>1222749900</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>9</v>
@@ -2698,7 +2739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" ht="15.25" spans="2:9">
       <c r="B17" s="5">
         <v>0.375</v>
       </c>
@@ -2709,10 +2750,10 @@
         <v>1094437017</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>9</v>
@@ -2724,7 +2765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" ht="15.25" spans="2:9">
       <c r="B18" s="5">
         <v>0.375</v>
       </c>
@@ -2735,10 +2776,10 @@
         <v>1001473220</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>58</v>
@@ -2750,7 +2791,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" ht="15.25" spans="2:9">
       <c r="B19" s="5">
         <v>0.375</v>
       </c>
@@ -2761,10 +2802,10 @@
         <v>1016826235</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
@@ -2776,7 +2817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" ht="15.25" spans="2:9">
       <c r="B20" s="5">
         <v>0.375</v>
       </c>
@@ -2787,10 +2828,10 @@
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2813,13 +2854,13 @@
         <v>31</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>21</v>
@@ -2839,13 +2880,13 @@
         <v>1012805735</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>47</v>
@@ -2854,11 +2895,34 @@
         <v>45</v>
       </c>
     </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1026740215</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I22" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I22">
-      <sortCondition ref="G2"/>
-    </sortState>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I23" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/تدريب سامسونج 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 10-11-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
   <si>
     <t>Please find the below list for the trainees starting tomorrow in New Cairo from 9 Am to 6 Pm</t>
   </si>
@@ -237,18 +237,57 @@
     <t>Samsung Training</t>
   </si>
   <si>
+    <t>احمد سمير</t>
+  </si>
+  <si>
+    <t>بهاء محمد</t>
+  </si>
+  <si>
+    <t>ديانا طارق</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>دينا عادل</t>
+  </si>
+  <si>
+    <t>غدير حاتم</t>
+  </si>
+  <si>
     <t>هناء أحمد</t>
   </si>
   <si>
     <t>؟</t>
   </si>
   <si>
-    <t>دينا عادل</t>
+    <t>حنين حاتم</t>
+  </si>
+  <si>
+    <t>ملاك أحمد</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>ماريشيا جورج</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>ميار ايمن علي</t>
   </si>
   <si>
     <t>ندى مندور</t>
   </si>
   <si>
+    <t>نوران سامي أحمد</t>
+  </si>
+  <si>
+    <t>و - مدينتي</t>
+  </si>
+  <si>
     <t>رحيق اسماعيل</t>
   </si>
   <si>
@@ -258,19 +297,16 @@
     <t>ميدان العباسية</t>
   </si>
   <si>
-    <t>ديانا طارق</t>
-  </si>
-  <si>
-    <t>العبور</t>
-  </si>
-  <si>
-    <t>غدير حاتم</t>
-  </si>
-  <si>
-    <t>ملاك أحمد</t>
-  </si>
-  <si>
-    <t>دائري</t>
+    <t>رزان اسماعيل</t>
+  </si>
+  <si>
+    <t>روني ماثيو</t>
+  </si>
+  <si>
+    <t>سعيد، منى</t>
+  </si>
+  <si>
+    <t>سيف الشامي</t>
   </si>
   <si>
     <t>شيرين هشام</t>
@@ -279,60 +315,100 @@
     <t>وسام محمد</t>
   </si>
   <si>
-    <t>بهاء محمد</t>
-  </si>
-  <si>
     <t>يارا السيد</t>
   </si>
   <si>
-    <t>احمد سمير</t>
-  </si>
-  <si>
-    <t>سعيد، منى</t>
-  </si>
-  <si>
-    <t>سيف الشامي</t>
-  </si>
-  <si>
-    <t>حنين حاتم</t>
-  </si>
-  <si>
     <t>ياسمين ايهاب</t>
   </si>
   <si>
-    <t>روني ماثيو</t>
-  </si>
-  <si>
-    <t>رزان اسماعيل</t>
-  </si>
-  <si>
-    <t>نوران سامي أحمد</t>
-  </si>
-  <si>
-    <t>و - مدينتي</t>
-  </si>
-  <si>
-    <t>ماريشيا جورج</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
-  </si>
-  <si>
-    <t>ميار ايمن علي</t>
+    <t>TWWID</t>
+  </si>
+  <si>
+    <t>Employee name</t>
+  </si>
+  <si>
+    <t>Shift - Start</t>
+  </si>
+  <si>
+    <t>Shift - End</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>روكسي</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>كارفور</t>
+  </si>
+  <si>
+    <t>مصر الجديده</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>الابيض</t>
+  </si>
+  <si>
+    <t>Monday, November 17, 2025</t>
+  </si>
+  <si>
+    <t>Tuesday, November 18, 2025</t>
+  </si>
+  <si>
+    <t>Wednesday, November 19, 2025</t>
+  </si>
+  <si>
+    <t>Thursday, November 20, 2025</t>
+  </si>
+  <si>
+    <t>Friday, November 21, 2025</t>
+  </si>
+  <si>
+    <t>Saturday, November 22, 2025</t>
+  </si>
+  <si>
+    <t>Sunday, November 23, 2025</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>Stop time</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +436,39 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF003366"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -520,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +644,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF57BB8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5B06B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CD72"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE67C73"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF888888"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -744,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -892,6 +1055,81 @@
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -929,36 +1167,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,137 +1288,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1440,12 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1244,64 +1458,127 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1356,7 +1633,17 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1550,25 +1837,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
+      <tableStyleElement type="pageFieldValues" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1854,468 +2141,468 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="44">
         <v>1123114428</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="44">
         <v>1286209830</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="44">
         <v>1016826235</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="46">
         <v>1044608425</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:6">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="44">
         <v>1035260283</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="44">
         <v>1222544740</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:6">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:6">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="44">
         <v>1032874133</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:6">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:6">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="44">
         <v>1002498107</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:6">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="44">
         <v>1119865125</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:6">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="44">
         <v>1028108588</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:6">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:6">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="44">
         <v>1108718978</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:6">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="44">
         <v>1012805735</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:6">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="48">
         <v>1222749900</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="44">
         <v>1094437017</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:6">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:6">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="44">
         <v>1117297939</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:6">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="50">
         <v>1200050553</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:6">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="44">
         <v>1001473220</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:6">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="52">
         <v>1026740215</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="53" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2328,20 +2615,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I23"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="B3:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="4" max="4" width="27.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="16.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="18.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="16.0636363636364" customWidth="1"/>
-    <col min="8" max="8" width="17.5363636363636" customWidth="1"/>
-    <col min="9" max="9" width="18.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="8.81818181818182" customWidth="1"/>
+    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
+    <col min="3" max="16" width="10.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.25" spans="6:6">
@@ -2371,11 +2655,11 @@
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:9">
+    <row r="3" spans="2:9">
       <c r="B3" s="5">
         <v>0.375</v>
       </c>
@@ -2383,7 +2667,7 @@
         <v>0.75</v>
       </c>
       <c r="D3" s="7">
-        <v>1035260283</v>
+        <v>1002498107</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>67</v>
@@ -2392,42 +2676,42 @@
         <v>68</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="2:9">
+        <v>33</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>0.375</v>
       </c>
       <c r="C4" s="6">
         <v>0.75</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>51</v>
+      <c r="D4" s="7">
+        <v>1222544740</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="2:9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>0.375</v>
       </c>
@@ -2435,33 +2719,33 @@
         <v>0.75</v>
       </c>
       <c r="D5" s="7">
-        <v>1200050553</v>
+        <v>1117297939</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25" spans="2:9">
+        <v>55</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>0.375</v>
       </c>
       <c r="C6" s="6">
         <v>0.75</v>
       </c>
-      <c r="D6" s="7">
-        <v>1108718978</v>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>67</v>
@@ -2470,120 +2754,120 @@
         <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="2:9">
+        <v>53</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="5">
         <v>0.375</v>
       </c>
       <c r="C7" s="6">
         <v>0.75</v>
       </c>
-      <c r="D7" s="7">
-        <v>1117297939</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="2:9">
+      <c r="F7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="5">
         <v>0.375</v>
       </c>
       <c r="C8" s="6">
         <v>0.75</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="9">
+        <v>1035260283</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="2:9">
+      <c r="F8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="5">
         <v>0.375</v>
       </c>
       <c r="C9" s="6">
         <v>0.75</v>
       </c>
-      <c r="D9" s="7">
-        <v>1028108588</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="9">
+        <v>1094437017</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="2:9">
+      <c r="F9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="5">
         <v>0.375</v>
       </c>
       <c r="C10" s="6">
         <v>0.75</v>
       </c>
-      <c r="D10" s="7">
-        <v>1286209830</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="9">
+        <v>1028108588</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="2:9">
+      <c r="F10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="5">
         <v>0.375</v>
       </c>
@@ -2591,25 +2875,25 @@
         <v>0.75</v>
       </c>
       <c r="D11" s="7">
-        <v>1123114428</v>
+        <v>1012805735</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="2:9">
+        <v>47</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="5">
         <v>0.375</v>
       </c>
@@ -2617,25 +2901,25 @@
         <v>0.75</v>
       </c>
       <c r="D12" s="7">
-        <v>1222544740</v>
+        <v>1026740215</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="2:9">
+        <v>62</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="5">
         <v>0.375</v>
       </c>
@@ -2643,51 +2927,51 @@
         <v>0.75</v>
       </c>
       <c r="D13" s="7">
-        <v>1032874133</v>
+        <v>1200050553</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="2:9">
+        <v>53</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="5">
         <v>0.375</v>
       </c>
       <c r="C14" s="6">
         <v>0.75</v>
       </c>
-      <c r="D14" s="7">
-        <v>1002498107</v>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="2:9">
+        <v>21</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" s="5">
         <v>0.375</v>
       </c>
@@ -2695,7 +2979,7 @@
         <v>0.75</v>
       </c>
       <c r="D15" s="7">
-        <v>1119865125</v>
+        <v>1108718978</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>67</v>
@@ -2704,42 +2988,42 @@
         <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="2:9">
+        <v>87</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="5">
         <v>0.375</v>
       </c>
       <c r="C16" s="6">
         <v>0.75</v>
       </c>
-      <c r="D16" s="7">
-        <v>1222749900</v>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="2:9">
+        <v>27</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
         <v>0.375</v>
       </c>
@@ -2747,100 +3031,100 @@
         <v>0.75</v>
       </c>
       <c r="D17" s="7">
-        <v>1094437017</v>
+        <v>1016826235</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="2:9">
+        <v>18</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>0.375</v>
       </c>
       <c r="C18" s="6">
         <v>0.75</v>
       </c>
-      <c r="D18" s="7">
-        <v>1001473220</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="9">
+        <v>1119865125</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="2:9">
+      <c r="F18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
         <v>0.375</v>
       </c>
       <c r="C19" s="6">
         <v>0.75</v>
       </c>
-      <c r="D19" s="7">
-        <v>1016826235</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="9">
+        <v>1222749900</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="2:9">
+      <c r="F19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="5">
         <v>0.375</v>
       </c>
       <c r="C20" s="6">
         <v>0.75</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
+      <c r="D20" s="7">
+        <v>1286209830</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -2850,81 +3134,678 @@
       <c r="C21" s="6">
         <v>0.75</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="9">
+        <v>1123114428</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1032874133</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1001473220</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" ht="15.25" spans="2:7">
+      <c r="B27" s="17">
+        <v>10347537</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" ht="15.25" spans="2:7">
+      <c r="B28" s="21">
+        <v>10347270</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" ht="15.25" spans="2:7">
+      <c r="B29" s="17">
+        <v>10347357</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="9">
+    </row>
+    <row r="30" ht="15.25" spans="2:7">
+      <c r="B30" s="21">
+        <v>10347274</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="19">
         <v>0.375</v>
       </c>
-      <c r="C22" s="10">
+      <c r="E30" s="19">
         <v>0.75</v>
       </c>
-      <c r="D22" s="11">
-        <v>1012805735</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="F30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" ht="15.25" spans="2:7">
+      <c r="B31" s="21">
+        <v>10347319</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" ht="15.25" spans="2:7">
+      <c r="B32" s="21">
+        <v>10347299</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" ht="15.25" spans="2:7">
+      <c r="B33" s="21">
+        <v>10347380</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="15.25" spans="2:7">
+      <c r="B34" s="17">
+        <v>10285489</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" ht="15.25"/>
+    <row r="36" spans="1:16">
+      <c r="A36" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" s="25"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" ht="15.25" spans="1:16">
+      <c r="A38" s="27">
+        <v>10347285</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D38" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H38" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N38" s="30">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="O38" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P38" s="30">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="39" ht="15.25" spans="1:16">
+      <c r="A39" s="27">
+        <v>10347283</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="I39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L39" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O39" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" ht="15.25" spans="1:16">
+      <c r="A40" s="27">
+        <v>10347312</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L40" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="M40" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N40" s="30">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="O40" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P40" s="30">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="41" ht="15.25" spans="1:16">
+      <c r="A41" s="27">
+        <v>10347346</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O41" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" ht="15.25" spans="1:16">
+      <c r="A42" s="27">
+        <v>10347318</v>
+      </c>
+      <c r="B42" s="28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1026740215</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>60</v>
+      <c r="C42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="E42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="G42" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="M42" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N42" s="30">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="O42" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P42" s="30">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="43" ht="15.25" spans="1:16">
+      <c r="A43" s="27">
+        <v>10347267</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="H43" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I43" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="J43" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="K43" s="29">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="L43" s="30">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="M43" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N43" s="30">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="O43" s="29">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P43" s="30">
+        <v>0.791666666666667</v>
       </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I23" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B3:I23">
+      <sortCondition ref="I2"/>
+    </sortState>
     <extLst/>
   </autoFilter>
+  <mergeCells count="15">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A36:A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B34">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/تدريب سامسونج 10-11-2025.xlsx
+++ b/Accounts-Schedules/تدريب سامسونج 10-11-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$I$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$25:$G$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="125">
   <si>
     <t>Please find the below list for the trainees starting tomorrow in New Cairo from 9 Am to 6 Pm</t>
   </si>
@@ -339,33 +339,33 @@
     <t>Point</t>
   </si>
   <si>
+    <t>كارفور</t>
+  </si>
+  <si>
+    <t>الابيض</t>
+  </si>
+  <si>
+    <t>مصر الجديده</t>
+  </si>
+  <si>
     <t>روكسي</t>
   </si>
   <si>
+    <t>مدينتي</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
     <t>التجمع</t>
   </si>
   <si>
-    <t>مدينتي</t>
-  </si>
-  <si>
-    <t>العباسية</t>
-  </si>
-  <si>
-    <t>معرض علاء الدين</t>
-  </si>
-  <si>
-    <t>كارفور</t>
-  </si>
-  <si>
-    <t>مصر الجديده</t>
-  </si>
-  <si>
     <t>المقطم</t>
   </si>
   <si>
-    <t>الابيض</t>
-  </si>
-  <si>
     <t>Monday, November 17, 2025</t>
   </si>
   <si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>• Arrival Time: 9:00 AM</t>
+  </si>
+  <si>
+    <t>• Departure Time: 6:00 PM</t>
+  </si>
+  <si>
+    <t>• Start Date: 24/11/2025</t>
+  </si>
+  <si>
+    <t>• End Date: 28/11/2025</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,7 @@
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +481,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF003366"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1288,137 +1333,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,7 +1516,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1483,7 +1528,7 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -1524,6 +1569,45 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1539,46 +1623,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2141,468 +2225,468 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:6">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="57">
         <v>1123114428</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:6">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="57">
         <v>1286209830</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="57">
         <v>1016826235</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="59">
         <v>1044608425</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:6">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="57">
         <v>1035260283</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:6">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="57">
         <v>1222544740</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:6">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:6">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="57">
         <v>1032874133</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:6">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:6">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="57">
         <v>1002498107</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:6">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="57">
         <v>1119865125</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:6">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="57">
         <v>1028108588</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:6">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:6">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="57">
         <v>1108718978</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:6">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="57">
         <v>1012805735</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:6">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="48">
+      <c r="B19" s="61">
         <v>1222749900</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:6">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="57">
         <v>1094437017</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:6">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:6">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="57">
         <v>1117297939</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:6">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="63">
         <v>1200050553</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:6">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="57">
         <v>1001473220</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:6">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="65">
         <v>1026740215</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="66" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2615,20 +2699,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.81818181818182" customWidth="1"/>
     <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
-    <col min="3" max="16" width="10.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
+    <col min="4" max="4" width="16.8181818181818" customWidth="1"/>
+    <col min="5" max="16" width="10.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.25" spans="6:6">
+    <row r="1" ht="20" customHeight="1" spans="6:6">
       <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2655,11 +2741,11 @@
       <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" ht="15.25" spans="2:9">
       <c r="B3" s="5">
         <v>0.375</v>
       </c>
@@ -2681,11 +2767,11 @@
       <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" ht="15.25" spans="2:9">
       <c r="B4" s="5">
         <v>0.375</v>
       </c>
@@ -2707,11 +2793,11 @@
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" ht="15.25" spans="2:9">
       <c r="B5" s="5">
         <v>0.375</v>
       </c>
@@ -2733,11 +2819,11 @@
       <c r="H5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" ht="15.25" spans="2:9">
       <c r="B6" s="5">
         <v>0.375</v>
       </c>
@@ -2759,11 +2845,11 @@
       <c r="H6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" ht="15.25" spans="2:9">
       <c r="B7" s="5">
         <v>0.375</v>
       </c>
@@ -2785,11 +2871,11 @@
       <c r="H7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="50" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="5">
         <v>0.375</v>
       </c>
@@ -2811,11 +2897,11 @@
       <c r="H8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="5">
         <v>0.375</v>
       </c>
@@ -2837,11 +2923,11 @@
       <c r="H9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" ht="15.25" spans="2:9">
       <c r="B10" s="5">
         <v>0.375</v>
       </c>
@@ -2863,11 +2949,11 @@
       <c r="H10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" ht="15.25" spans="2:9">
       <c r="B11" s="5">
         <v>0.375</v>
       </c>
@@ -2889,11 +2975,11 @@
       <c r="H11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" ht="15.25" spans="2:9">
       <c r="B12" s="5">
         <v>0.375</v>
       </c>
@@ -2915,11 +3001,11 @@
       <c r="H12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" ht="15.25" spans="2:9">
       <c r="B13" s="5">
         <v>0.375</v>
       </c>
@@ -2941,11 +3027,11 @@
       <c r="H13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" ht="15.25" spans="2:9">
       <c r="B14" s="5">
         <v>0.375</v>
       </c>
@@ -2967,11 +3053,11 @@
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" ht="15.25" spans="2:9">
       <c r="B15" s="5">
         <v>0.375</v>
       </c>
@@ -2993,11 +3079,11 @@
       <c r="H15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" ht="15.25" spans="2:9">
       <c r="B16" s="5">
         <v>0.375</v>
       </c>
@@ -3019,11 +3105,11 @@
       <c r="H16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" ht="15.25" spans="2:9">
       <c r="B17" s="5">
         <v>0.375</v>
       </c>
@@ -3045,11 +3131,11 @@
       <c r="H17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="49" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" ht="15.25" spans="2:9">
       <c r="B18" s="5">
         <v>0.375</v>
       </c>
@@ -3071,11 +3157,11 @@
       <c r="H18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" ht="15.25" spans="2:9">
       <c r="B19" s="5">
         <v>0.375</v>
       </c>
@@ -3097,11 +3183,11 @@
       <c r="H19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" ht="15.25" spans="2:9">
       <c r="B20" s="5">
         <v>0.375</v>
       </c>
@@ -3123,11 +3209,11 @@
       <c r="H20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" ht="15.25" spans="2:9">
       <c r="B21" s="5">
         <v>0.375</v>
       </c>
@@ -3149,11 +3235,11 @@
       <c r="H21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" ht="15.25" spans="2:9">
       <c r="B22" s="11">
         <v>0.375</v>
       </c>
@@ -3175,11 +3261,11 @@
       <c r="H22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" ht="15.25" spans="2:9">
       <c r="B23" s="11">
         <v>0.375</v>
       </c>
@@ -3201,11 +3287,12 @@
       <c r="H23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="24" ht="15.25"/>
+    <row r="25" ht="15.25" spans="2:7">
       <c r="B25" s="15" t="s">
         <v>96</v>
       </c>
@@ -3233,12 +3320,12 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" ht="15.25" spans="2:7">
+    <row r="27" spans="2:7">
       <c r="B27" s="17">
-        <v>10347537</v>
+        <v>10347319</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D27" s="19">
         <v>0.375</v>
@@ -3247,18 +3334,18 @@
         <v>0.75</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" ht="15.25" spans="2:7">
+    <row r="28" spans="2:7">
       <c r="B28" s="21">
-        <v>10347270</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>28</v>
+        <v>10285489</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="19">
         <v>0.375</v>
@@ -3267,18 +3354,18 @@
         <v>0.75</v>
       </c>
       <c r="F28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" ht="15.25" spans="2:7">
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="17">
-        <v>10347357</v>
+        <v>10347299</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D29" s="19">
         <v>0.375</v>
@@ -3290,15 +3377,15 @@
         <v>104</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" ht="15.25" spans="2:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="21">
-        <v>10347274</v>
+        <v>10347357</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D30" s="19">
         <v>0.375</v>
@@ -3307,18 +3394,18 @@
         <v>0.75</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" ht="15.25" spans="2:7">
-      <c r="B31" s="21">
-        <v>10347319</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="17">
+        <v>10347274</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D31" s="19">
         <v>0.375</v>
@@ -3327,18 +3414,18 @@
         <v>0.75</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" ht="15.25" spans="2:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="21">
-        <v>10347299</v>
+        <v>10347537</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D32" s="19">
         <v>0.375</v>
@@ -3347,18 +3434,18 @@
         <v>0.75</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" ht="15.25" spans="2:7">
-      <c r="B33" s="21">
-        <v>10347380</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="17">
+        <v>10347270</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D33" s="19">
         <v>0.375</v>
@@ -3370,15 +3457,15 @@
         <v>109</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" ht="15.25" spans="2:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="17">
-        <v>10285489</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>60</v>
+        <v>10347380</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="19">
         <v>0.375</v>
@@ -3387,14 +3474,13 @@
         <v>0.75</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" ht="15.25"/>
-    <row r="36" spans="1:16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" ht="15.25" spans="1:16">
       <c r="A36" s="23" t="s">
         <v>96</v>
       </c>
@@ -3430,7 +3516,7 @@
       </c>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" ht="15.25" spans="1:16">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="26" t="s">
@@ -3776,14 +3862,254 @@
         <v>0.791666666666667</v>
       </c>
     </row>
+    <row r="46" ht="15.25" spans="3:8">
+      <c r="C46" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" ht="15.25" spans="1:8">
+      <c r="A47" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48" ht="15.25" spans="1:8">
+      <c r="A48" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="41">
+        <v>10347319</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" ht="15.25" spans="1:8">
+      <c r="A49" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="45">
+        <v>10285489</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F49" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" ht="15.25" spans="1:8">
+      <c r="A50" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="41">
+        <v>10347299</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G50" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" ht="15.25" spans="3:8">
+      <c r="C51" s="45">
+        <v>10347357</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F51" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G51" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="41">
+        <v>10347274</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F52" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="45">
+        <v>10347537</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="41">
+        <v>10347270</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F54" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G54" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="41">
+        <v>10347380</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="43">
+        <v>0.375</v>
+      </c>
+      <c r="F55" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+    </row>
+    <row r="58" spans="4:8">
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="4:8">
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+    </row>
+    <row r="60" spans="4:8">
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:I23" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="B3:I23">
-      <sortCondition ref="I2"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B25:G34" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="B26:G34">
+      <sortCondition ref="C25"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <mergeCells count="15">
+  <mergeCells count="21">
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:H36"/>
@@ -3795,10 +4121,16 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F46:F47"/>
     <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
   </mergeCells>
   <conditionalFormatting sqref="A36:A43">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
